--- a/math_110h/projects/Car_Dealershipstxt_2.xlsx
+++ b/math_110h/projects/Car_Dealershipstxt_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\dev\broken_code\math_110h\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661787BE-ACA9-476F-AE1E-0CDE15448865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31719C9-F3B1-453D-92E0-D13BD3189C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34050" yWindow="1695" windowWidth="34770" windowHeight="16785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="69">
   <si>
     <t>Dealership Number</t>
   </si>
@@ -246,12 +246,6 @@
   </si>
   <si>
     <t>Steam</t>
-  </si>
-  <si>
-    <t>Leaves</t>
-  </si>
-  <si>
-    <t>(in thousands)</t>
   </si>
   <si>
     <t>Count</t>
@@ -1818,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1001"/>
+  <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,7 +2250,7 @@
         <v>15836</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2282,7 +2276,7 @@
         <v>16107</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2308,7 +2302,7 @@
         <v>16321</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2334,7 +2328,7 @@
         <v>16325</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2360,7 +2354,7 @@
         <v>16379</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2386,7 +2380,7 @@
         <v>16498</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2412,7 +2406,7 @@
         <v>16510</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2438,7 +2432,7 @@
         <v>16592</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2464,7 +2458,7 @@
         <v>16685</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2490,7 +2484,7 @@
         <v>16711</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2516,7 +2510,7 @@
         <v>16765</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2542,7 +2536,7 @@
         <v>16818</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2568,7 +2562,7 @@
         <v>16819</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2594,7 +2588,7 @@
         <v>16936</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2619,20 +2613,8 @@
       <c r="K30">
         <v>16942</v>
       </c>
-      <c r="M30" t="s">
-        <v>61</v>
-      </c>
-      <c r="N30" t="s">
-        <v>64</v>
-      </c>
-      <c r="O30" t="s">
-        <v>62</v>
-      </c>
-      <c r="P30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2657,19 +2639,8 @@
       <c r="K31">
         <v>17097</v>
       </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <f>SUMPRODUCT(--(LEFT($K$2:$K$1001,1)=FIXED($M$31,0)))</f>
-        <v>76</v>
-      </c>
-      <c r="O31" t="str">
-        <f>IF(COLUMNS($O$31:$O$31)&lt;=$N$31,INDEX(RIGHT($K$2:$K$1001,4),SMALL(IF(LEFT($K$2:$K$1001,1)=$M$31&amp;"",ROW($K$2:$K$1001)-ROW($K$2)+1),COLUMNS($O$31:$O$31))),"")</f>
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2694,15 +2665,8 @@
       <c r="K32">
         <v>17342</v>
       </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-      <c r="N32">
-        <f>SUMPRODUCT(--(LEFT($K$2:$K$1001,1)=FIXED($M$32,0)))</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2727,15 +2691,8 @@
       <c r="K33">
         <v>17342</v>
       </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
-      <c r="N33">
-        <f>SUMPRODUCT(--(LEFT($K$2:$K$1001,1)=FIXED($M$33,0)))</f>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2760,15 +2717,8 @@
       <c r="K34">
         <v>17349</v>
       </c>
-      <c r="M34">
-        <v>4</v>
-      </c>
-      <c r="N34">
-        <f>SUMPRODUCT(--(LEFT($K$2:$K$1001,1)=FIXED($M$34,0)))</f>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2793,15 +2743,8 @@
       <c r="K35">
         <v>17389</v>
       </c>
-      <c r="M35">
-        <v>5</v>
-      </c>
-      <c r="N35">
-        <f>SUMPRODUCT(--(LEFT($K$2:$K$1001,1)=FIXED($M$35,0)))</f>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2826,15 +2769,8 @@
       <c r="K36">
         <v>17626</v>
       </c>
-      <c r="M36">
-        <v>6</v>
-      </c>
-      <c r="N36">
-        <f>SUMPRODUCT(--(LEFT($K$2:$K$1001,1)=FIXED($M$36,0)))</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2859,15 +2795,8 @@
       <c r="K37">
         <v>17640</v>
       </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <f>SUMPRODUCT(--(LEFT($K$2:$K$1001,1)=FIXED($M$37,0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2893,7 +2822,7 @@
         <v>17651</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2919,7 +2848,7 @@
         <v>17704</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2945,7 +2874,7 @@
         <v>17725</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2971,7 +2900,7 @@
         <v>17783</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2997,7 +2926,7 @@
         <v>17864</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3023,7 +2952,7 @@
         <v>17889</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3049,7 +2978,7 @@
         <v>17972</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3075,7 +3004,7 @@
         <v>18074</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3101,7 +3030,7 @@
         <v>18150</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3127,7 +3056,7 @@
         <v>18343</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -27944,7 +27873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B59FEE-A835-4614-9BEC-DBD955563680}">
   <dimension ref="A1:AV1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -27975,16 +27904,16 @@
         <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AS1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AT1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
@@ -27992,7 +27921,7 @@
         <v>12476</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <f>MAX(A2,A1001)</f>
@@ -28020,7 +27949,7 @@
         <v>476</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AV2">
         <v>12476</v>
@@ -28031,7 +27960,7 @@
         <v>13148</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <f>MIN(A2,A1001)</f>
@@ -28064,7 +27993,7 @@
         <v>13410</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <f>COUNT(J2:AP57)</f>
